--- a/Excel-XLSX/UN-GRN.xlsx
+++ b/Excel-XLSX/UN-GRN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>q2IJvk</t>
+    <t>PuS0To</t>
   </si>
   <si>
     <t>2010</t>
@@ -120,7 +120,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -678,8 +684,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -746,8 +752,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -814,8 +820,8 @@
       <c r="U4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -882,8 +888,8 @@
       <c r="U5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -951,6 +957,74 @@
         <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-GRN.xlsx
+++ b/Excel-XLSX/UN-GRN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>PuS0To</t>
+    <t>sBU51o</t>
   </si>
   <si>
     <t>2010</t>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>2022</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -544,7 +538,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -684,8 +678,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -752,8 +746,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -820,8 +814,8 @@
       <c r="U4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -888,8 +882,8 @@
       <c r="U5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -957,74 +951,6 @@
         <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-GRN.xlsx
+++ b/Excel-XLSX/UN-GRN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>sBU51o</t>
+    <t>3qkGP6</t>
   </si>
   <si>
     <t>2010</t>
